--- a/src/assets/samples/TicketChangeStatusTemplate.xlsx
+++ b/src/assets/samples/TicketChangeStatusTemplate.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afaqy\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qasem\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E131DA2-0168-43D7-8C0E-8F06B5EF972B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01E0AD81-4B10-4403-8DA6-462D7103D3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F8CF2A45-B278-473C-AD22-2B1052D31D43}"/>
+    <workbookView xWindow="27660" yWindow="675" windowWidth="21975" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>TerminalId</t>
+    <t>TicketId</t>
   </si>
   <si>
-    <t>ErrandTypeId</t>
-  </si>
-  <si>
-    <t>AssigneeId</t>
+    <t>Action</t>
   </si>
 </sst>
 </file>
@@ -44,7 +41,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -69,9 +66,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -106,7 +102,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -118,7 +114,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -165,23 +161,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -217,23 +196,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -385,33 +347,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BE0C2A-D9F3-4CDC-A2FB-2EA44E3111B1}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/assets/samples/TicketChangeStatusTemplate.xlsx
+++ b/src/assets/samples/TicketChangeStatusTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qasem\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afaqy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01E0AD81-4B10-4403-8DA6-462D7103D3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6EEC5D-D511-4DA0-87DA-7EBCC9163965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27660" yWindow="675" windowWidth="21975" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40230" yWindow="3960" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>TicketId</t>
   </si>
   <si>
     <t>Action</t>
   </si>
+  <si>
+    <t>Notes</t>
+  </si>
 </sst>
 </file>
 
@@ -41,7 +44,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -66,8 +69,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,24 +354,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A10" sqref="A2:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
